--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_278.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_278.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28), (7.48, 13.84)]</t>
+          <t>[('0:01:45', '0:01:48.240000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.252991452991453</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3308823529411765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D', 'G', 'D', 'G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['D/b7', 'G', 'D', 'G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.1, 20.92)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:32.096349', '0:00:50.173083')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:58.591927', '0:01:07.543219')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08307453416149069</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:00:09.820000', '0:00:12.930000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:19.360000', '0:00:21.740000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_246</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2604166666666666</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D']]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.476213, 15.8656)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(55.641383, 61.040381)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.54, 15.12)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.094553, 24.840113)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:00:56.440000', '0:01:06.340000'), ('0:00:00.360000', '0:00:07.140000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:36.280000', '0:00:38'), ('0:00:36.140000', '0:00:37.580000'), ('0:00:09.620000', '0:00:14.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1528471528471528</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['E:7', 'A:maj', 'E:7']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['C:7', 'F', 'C:7']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04), (21.8, 24.6)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7), (24.12, 27.0)]</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.101242983159583</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(79.46, 89.81)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.92, 24.66)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6176470588235294</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07482993197278912</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(59.5, 65.04)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07482993197278912</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(72.64, 79.22)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.88, 12.97), (4.83, 10.94), (2.77, 8.9)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32), (19.78, 23.12), (8.78, 15.8)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1205857019810508</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'E'], ['E', 'A', 'E', 'B'], ['A', 'E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D'], ['D', 'G', 'D', 'A'], ['G', 'D', 'A', 'D']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.68228, 20.438561), (7.284457, 22.098788), (2.512756, 13.890534)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(45.336, 52.013), (4.063, 8.399), (5.734, 9.774)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1118099231306778</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'G', 'D'], ['D', 'A', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'G/5', 'D'], ['D/5', 'A', 'D/5', 'D']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.399, 14.292), (6.536, 11.853)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.707687, 25.501882), (34.743424, 38.330907)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1440993788819876</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(46.75, 47.79)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.8, 20.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
